--- a/SecondHalf/SecondHalf/resultsExcel.xlsx
+++ b/SecondHalf/SecondHalf/resultsExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laur\Desktop\RPA\proiect\RPA-PasswordManager\SecondHalf\SecondHalf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3755C8BF-2D4A-4D2B-80E6-E82847CDD28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759A287-7215-427F-8A1B-5ABF640A9855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" xr2:uid="{162E006A-0C69-413F-87D4-0708E281E076}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="20910" windowHeight="11835" xr2:uid="{162E006A-0C69-413F-87D4-0708E281E076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,7 +372,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -384,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182389CD-FABB-415E-AD24-FA39F6AA1AAE}">
-  <dimension ref="C2"/>
+  <dimension ref="C2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -392,7 +388,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
@@ -402,6 +398,8 @@
     <row r="2" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
+    <row r="3" spans="3:3" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
